--- a/Documents/ProjectSchedule.xlsx
+++ b/Documents/ProjectSchedule.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>ID</t>
   </si>
@@ -137,7 +137,22 @@
     <t>0d</t>
   </si>
   <si>
-    <t>31d</t>
+    <t>24d</t>
+  </si>
+  <si>
+    <t>11-Now</t>
+  </si>
+  <si>
+    <t>7d</t>
+  </si>
+  <si>
+    <t>12d</t>
+  </si>
+  <si>
+    <t>4d</t>
+  </si>
+  <si>
+    <t>December</t>
   </si>
 </sst>
 </file>
@@ -175,7 +190,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -183,27 +198,117 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,10 +589,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CR22"/>
+  <sheetPr>
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
+  <dimension ref="A1:CW22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CV29" sqref="CV29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,425 +603,473 @@
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="6" max="14" width="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="35" width="3" bestFit="1" customWidth="1"/>
-    <col min="36" max="44" width="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="66" width="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="14" width="2" hidden="1" customWidth="1"/>
+    <col min="15" max="18" width="3" hidden="1" customWidth="1"/>
+    <col min="19" max="20" width="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="3" hidden="1" customWidth="1"/>
+    <col min="24" max="25" width="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3" hidden="1" customWidth="1"/>
+    <col min="27" max="29" width="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="3" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="3" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="3" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="42" width="2" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="2" hidden="1" customWidth="1"/>
+    <col min="45" max="49" width="3" hidden="1" customWidth="1"/>
+    <col min="50" max="52" width="3" bestFit="1" customWidth="1"/>
+    <col min="53" max="54" width="3" hidden="1" customWidth="1"/>
+    <col min="55" max="56" width="3" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="3" hidden="1" customWidth="1"/>
+    <col min="58" max="59" width="3" bestFit="1" customWidth="1"/>
+    <col min="60" max="65" width="3" hidden="1" customWidth="1"/>
+    <col min="66" max="66" width="3" bestFit="1" customWidth="1"/>
     <col min="67" max="75" width="2" bestFit="1" customWidth="1"/>
-    <col min="76" max="96" width="3" bestFit="1" customWidth="1"/>
+    <col min="76" max="78" width="3" bestFit="1" customWidth="1"/>
+    <col min="79" max="89" width="3" hidden="1" customWidth="1"/>
+    <col min="90" max="96" width="3" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="2.7109375" customWidth="1"/>
+    <col min="98" max="98" width="3" customWidth="1"/>
+    <col min="99" max="100" width="2.7109375" customWidth="1"/>
+    <col min="101" max="101" width="3.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4" t="s">
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AK1" s="4"/>
-      <c r="AL1" s="4"/>
-      <c r="AM1" s="4"/>
-      <c r="AN1" s="4"/>
-      <c r="AO1" s="4"/>
-      <c r="AP1" s="4"/>
-      <c r="AQ1" s="4"/>
-      <c r="AR1" s="4"/>
-      <c r="AS1" s="4"/>
-      <c r="AT1" s="4"/>
-      <c r="AU1" s="4"/>
-      <c r="AV1" s="4"/>
-      <c r="AW1" s="4"/>
-      <c r="AX1" s="4"/>
-      <c r="AY1" s="4"/>
-      <c r="AZ1" s="4"/>
-      <c r="BA1" s="4"/>
-      <c r="BB1" s="4"/>
-      <c r="BC1" s="4"/>
-      <c r="BD1" s="4"/>
-      <c r="BE1" s="4"/>
-      <c r="BF1" s="4"/>
-      <c r="BG1" s="4"/>
-      <c r="BH1" s="4"/>
-      <c r="BI1" s="4"/>
-      <c r="BJ1" s="4"/>
-      <c r="BK1" s="4"/>
-      <c r="BL1" s="4"/>
-      <c r="BM1" s="4"/>
-      <c r="BN1" s="5"/>
-      <c r="BO1" s="4" t="s">
+      <c r="AK1" s="13"/>
+      <c r="AL1" s="13"/>
+      <c r="AM1" s="13"/>
+      <c r="AN1" s="13"/>
+      <c r="AO1" s="13"/>
+      <c r="AP1" s="13"/>
+      <c r="AQ1" s="13"/>
+      <c r="AR1" s="13"/>
+      <c r="AS1" s="13"/>
+      <c r="AT1" s="13"/>
+      <c r="AU1" s="13"/>
+      <c r="AV1" s="13"/>
+      <c r="AW1" s="13"/>
+      <c r="AX1" s="13"/>
+      <c r="AY1" s="13"/>
+      <c r="AZ1" s="13"/>
+      <c r="BA1" s="13"/>
+      <c r="BB1" s="13"/>
+      <c r="BC1" s="13"/>
+      <c r="BD1" s="13"/>
+      <c r="BE1" s="13"/>
+      <c r="BF1" s="13"/>
+      <c r="BG1" s="13"/>
+      <c r="BH1" s="13"/>
+      <c r="BI1" s="13"/>
+      <c r="BJ1" s="13"/>
+      <c r="BK1" s="13"/>
+      <c r="BL1" s="13"/>
+      <c r="BM1" s="13"/>
+      <c r="BN1" s="2"/>
+      <c r="BO1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="BP1" s="4"/>
-      <c r="BQ1" s="4"/>
-      <c r="BR1" s="4"/>
-      <c r="BS1" s="4"/>
-      <c r="BT1" s="4"/>
-      <c r="BU1" s="4"/>
-      <c r="BV1" s="4"/>
-      <c r="BW1" s="4"/>
-      <c r="BX1" s="4"/>
-      <c r="BY1" s="4"/>
-      <c r="BZ1" s="4"/>
-      <c r="CA1" s="4"/>
-      <c r="CB1" s="4"/>
-      <c r="CC1" s="4"/>
-      <c r="CD1" s="4"/>
-      <c r="CE1" s="4"/>
-      <c r="CF1" s="4"/>
-      <c r="CG1" s="4"/>
-      <c r="CH1" s="4"/>
-      <c r="CI1" s="4"/>
-      <c r="CJ1" s="4"/>
-      <c r="CK1" s="4"/>
-      <c r="CL1" s="4"/>
-      <c r="CM1" s="4"/>
-      <c r="CN1" s="4"/>
-      <c r="CO1" s="4"/>
-      <c r="CP1" s="4"/>
-      <c r="CQ1" s="4"/>
-      <c r="CR1" s="4"/>
-    </row>
-    <row r="2" spans="1:96" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="5">
+      <c r="BP1" s="13"/>
+      <c r="BQ1" s="13"/>
+      <c r="BR1" s="13"/>
+      <c r="BS1" s="13"/>
+      <c r="BT1" s="13"/>
+      <c r="BU1" s="13"/>
+      <c r="BV1" s="13"/>
+      <c r="BW1" s="13"/>
+      <c r="BX1" s="13"/>
+      <c r="BY1" s="13"/>
+      <c r="BZ1" s="13"/>
+      <c r="CA1" s="13"/>
+      <c r="CB1" s="13"/>
+      <c r="CC1" s="13"/>
+      <c r="CD1" s="13"/>
+      <c r="CE1" s="13"/>
+      <c r="CF1" s="13"/>
+      <c r="CG1" s="13"/>
+      <c r="CH1" s="13"/>
+      <c r="CI1" s="13"/>
+      <c r="CJ1" s="13"/>
+      <c r="CK1" s="13"/>
+      <c r="CL1" s="13"/>
+      <c r="CM1" s="13"/>
+      <c r="CN1" s="13"/>
+      <c r="CO1" s="13"/>
+      <c r="CP1" s="13"/>
+      <c r="CQ1" s="13"/>
+      <c r="CR1" s="13"/>
+      <c r="CS1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="CT1" s="13"/>
+      <c r="CU1" s="13"/>
+      <c r="CV1" s="13"/>
+      <c r="CW1" s="13"/>
+    </row>
+    <row r="2" spans="1:101" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="2">
         <v>1</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="2">
         <v>2</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="2">
         <v>3</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="2">
         <v>4</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="2">
         <v>5</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="2">
         <v>6</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="2">
         <v>7</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="2">
         <v>8</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="2">
         <v>9</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="2">
         <v>10</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P2" s="2">
         <v>11</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q2" s="2">
         <v>12</v>
       </c>
-      <c r="R2" s="5">
+      <c r="R2" s="2">
         <v>13</v>
       </c>
-      <c r="S2" s="5">
+      <c r="S2" s="2">
         <v>14</v>
       </c>
-      <c r="T2" s="5">
+      <c r="T2" s="2">
         <v>15</v>
       </c>
-      <c r="U2" s="5">
+      <c r="U2" s="2">
         <v>16</v>
       </c>
-      <c r="V2" s="5">
+      <c r="V2" s="2">
         <v>17</v>
       </c>
-      <c r="W2" s="5">
+      <c r="W2" s="2">
         <v>18</v>
       </c>
-      <c r="X2" s="5">
+      <c r="X2" s="2">
         <v>19</v>
       </c>
-      <c r="Y2" s="5">
+      <c r="Y2" s="2">
         <v>20</v>
       </c>
-      <c r="Z2" s="5">
+      <c r="Z2" s="2">
         <v>21</v>
       </c>
-      <c r="AA2" s="5">
+      <c r="AA2" s="2">
         <v>22</v>
       </c>
-      <c r="AB2" s="5">
+      <c r="AB2" s="2">
         <v>23</v>
       </c>
-      <c r="AC2" s="5">
+      <c r="AC2" s="2">
         <v>24</v>
       </c>
-      <c r="AD2" s="5">
+      <c r="AD2" s="2">
         <v>25</v>
       </c>
-      <c r="AE2" s="5">
+      <c r="AE2" s="2">
         <v>26</v>
       </c>
-      <c r="AF2" s="5">
+      <c r="AF2" s="2">
         <v>27</v>
       </c>
-      <c r="AG2" s="5">
+      <c r="AG2" s="2">
         <v>28</v>
       </c>
-      <c r="AH2" s="5">
+      <c r="AH2" s="2">
         <v>29</v>
       </c>
-      <c r="AI2" s="5">
+      <c r="AI2" s="2">
         <v>30</v>
       </c>
-      <c r="AJ2" s="5">
+      <c r="AJ2" s="2">
         <v>1</v>
       </c>
-      <c r="AK2" s="5">
+      <c r="AK2" s="2">
         <v>2</v>
       </c>
-      <c r="AL2" s="5">
+      <c r="AL2" s="2">
         <v>3</v>
       </c>
-      <c r="AM2" s="5">
+      <c r="AM2" s="2">
         <v>4</v>
       </c>
-      <c r="AN2" s="5">
+      <c r="AN2" s="2">
         <v>5</v>
       </c>
-      <c r="AO2" s="5">
+      <c r="AO2" s="2">
         <v>6</v>
       </c>
-      <c r="AP2" s="5">
+      <c r="AP2" s="2">
         <v>7</v>
       </c>
-      <c r="AQ2" s="5">
+      <c r="AQ2" s="2">
         <v>8</v>
       </c>
-      <c r="AR2" s="5">
+      <c r="AR2" s="2">
         <v>9</v>
       </c>
-      <c r="AS2" s="5">
+      <c r="AS2" s="2">
         <v>10</v>
       </c>
-      <c r="AT2" s="5">
+      <c r="AT2" s="2">
         <v>11</v>
       </c>
-      <c r="AU2" s="5">
+      <c r="AU2" s="2">
         <v>12</v>
       </c>
-      <c r="AV2" s="5">
+      <c r="AV2" s="2">
         <v>13</v>
       </c>
-      <c r="AW2" s="5">
+      <c r="AW2" s="2">
         <v>14</v>
       </c>
-      <c r="AX2" s="5">
+      <c r="AX2" s="2">
         <v>15</v>
       </c>
-      <c r="AY2" s="5">
+      <c r="AY2" s="2">
         <v>16</v>
       </c>
-      <c r="AZ2" s="5">
+      <c r="AZ2" s="2">
         <v>17</v>
       </c>
-      <c r="BA2" s="5">
+      <c r="BA2" s="2">
         <v>18</v>
       </c>
-      <c r="BB2" s="5">
+      <c r="BB2" s="2">
         <v>19</v>
       </c>
-      <c r="BC2" s="5">
+      <c r="BC2" s="2">
         <v>20</v>
       </c>
-      <c r="BD2" s="5">
+      <c r="BD2" s="2">
         <v>21</v>
       </c>
-      <c r="BE2" s="5">
+      <c r="BE2" s="2">
         <v>22</v>
       </c>
-      <c r="BF2" s="5">
+      <c r="BF2" s="2">
         <v>23</v>
       </c>
-      <c r="BG2" s="5">
+      <c r="BG2" s="2">
         <v>24</v>
       </c>
-      <c r="BH2" s="5">
+      <c r="BH2" s="2">
         <v>25</v>
       </c>
-      <c r="BI2" s="5">
+      <c r="BI2" s="2">
         <v>26</v>
       </c>
-      <c r="BJ2" s="5">
+      <c r="BJ2" s="2">
         <v>27</v>
       </c>
-      <c r="BK2" s="5">
+      <c r="BK2" s="2">
         <v>28</v>
       </c>
-      <c r="BL2" s="5">
+      <c r="BL2" s="2">
         <v>29</v>
       </c>
-      <c r="BM2" s="5">
+      <c r="BM2" s="2">
         <v>30</v>
       </c>
-      <c r="BN2" s="5">
+      <c r="BN2" s="2">
         <v>31</v>
       </c>
-      <c r="BO2" s="5">
+      <c r="BO2" s="2">
         <v>1</v>
       </c>
-      <c r="BP2" s="5">
+      <c r="BP2" s="2">
         <v>2</v>
       </c>
-      <c r="BQ2" s="5">
+      <c r="BQ2" s="2">
         <v>3</v>
       </c>
-      <c r="BR2" s="5">
+      <c r="BR2" s="2">
         <v>4</v>
       </c>
-      <c r="BS2" s="5">
+      <c r="BS2" s="2">
         <v>5</v>
       </c>
-      <c r="BT2" s="5">
+      <c r="BT2" s="2">
         <v>6</v>
       </c>
-      <c r="BU2" s="5">
+      <c r="BU2" s="2">
         <v>7</v>
       </c>
-      <c r="BV2" s="5">
+      <c r="BV2" s="2">
         <v>8</v>
       </c>
-      <c r="BW2" s="5">
+      <c r="BW2" s="2">
         <v>9</v>
       </c>
-      <c r="BX2" s="5">
+      <c r="BX2" s="2">
         <v>10</v>
       </c>
-      <c r="BY2" s="5">
+      <c r="BY2" s="2">
         <v>11</v>
       </c>
-      <c r="BZ2" s="5">
+      <c r="BZ2" s="2">
         <v>12</v>
       </c>
-      <c r="CA2" s="5">
+      <c r="CA2" s="2">
         <v>13</v>
       </c>
-      <c r="CB2" s="5">
+      <c r="CB2" s="2">
         <v>14</v>
       </c>
-      <c r="CC2" s="5">
+      <c r="CC2" s="2">
         <v>15</v>
       </c>
-      <c r="CD2" s="5">
+      <c r="CD2" s="2">
         <v>16</v>
       </c>
-      <c r="CE2" s="5">
+      <c r="CE2" s="2">
         <v>17</v>
       </c>
-      <c r="CF2" s="5">
+      <c r="CF2" s="2">
         <v>18</v>
       </c>
-      <c r="CG2" s="5">
+      <c r="CG2" s="2">
         <v>19</v>
       </c>
-      <c r="CH2" s="5">
+      <c r="CH2" s="2">
         <v>20</v>
       </c>
-      <c r="CI2" s="5">
+      <c r="CI2" s="2">
         <v>21</v>
       </c>
-      <c r="CJ2" s="5">
+      <c r="CJ2" s="2">
         <v>22</v>
       </c>
-      <c r="CK2" s="5">
+      <c r="CK2" s="2">
         <v>23</v>
       </c>
-      <c r="CL2" s="5">
+      <c r="CL2" s="2">
         <v>24</v>
       </c>
-      <c r="CM2" s="5">
+      <c r="CM2" s="2">
         <v>25</v>
       </c>
-      <c r="CN2" s="5">
+      <c r="CN2" s="2">
         <v>26</v>
       </c>
-      <c r="CO2" s="5">
+      <c r="CO2" s="2">
         <v>27</v>
       </c>
-      <c r="CP2" s="5">
+      <c r="CP2" s="2">
         <v>28</v>
       </c>
-      <c r="CQ2" s="5">
+      <c r="CQ2" s="2">
         <v>29</v>
       </c>
-      <c r="CR2" s="5">
+      <c r="CR2" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="CS2" s="2">
+        <v>1</v>
+      </c>
+      <c r="CT2" s="2">
+        <v>2</v>
+      </c>
+      <c r="CU2" s="2">
+        <v>3</v>
+      </c>
+      <c r="CV2" s="2">
+        <v>4</v>
+      </c>
+      <c r="CW2" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:101" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="3">
         <v>41883</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="3">
         <v>41896</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="8"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -926,210 +1082,210 @@
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-    </row>
-    <row r="4" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="S3" s="9"/>
+    </row>
+    <row r="4" spans="1:101" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="3">
         <v>41897</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="3">
         <v>41901</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="T4" s="7"/>
+      <c r="T4" s="8"/>
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-    </row>
-    <row r="5" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="X4" s="9"/>
+    </row>
+    <row r="5" spans="1:101" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="3">
         <v>41902</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="3">
         <v>41904</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Y5" s="7"/>
+      <c r="Y5" s="8"/>
       <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-    </row>
-    <row r="6" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="AA5" s="9"/>
+    </row>
+    <row r="6" spans="1:101" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="3">
         <v>41905</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="3">
         <v>41905</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AB6" s="7"/>
-    </row>
-    <row r="7" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="AB6" s="6"/>
+    </row>
+    <row r="7" spans="1:101" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="3">
         <v>41906</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="3">
         <v>41911</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AC7" s="7"/>
+      <c r="AC7" s="8"/>
       <c r="AD7" s="7"/>
       <c r="AE7" s="7"/>
       <c r="AF7" s="7"/>
-      <c r="AG7" s="7"/>
-    </row>
-    <row r="8" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="AG7" s="10"/>
+    </row>
+    <row r="8" spans="1:101" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="3">
         <v>41911</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="3">
         <v>41912</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG8" s="7"/>
+      <c r="AG8" s="8"/>
       <c r="AH8" s="7"/>
-      <c r="AI8" s="7"/>
-    </row>
-    <row r="9" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="AI8" s="9"/>
+    </row>
+    <row r="9" spans="1:101" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="3">
         <v>41912</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="3">
         <v>41912</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AI9" s="7"/>
-    </row>
-    <row r="10" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="AI9" s="6"/>
+    </row>
+    <row r="10" spans="1:101" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="3">
         <v>41913</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="3">
         <v>41927</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ10" s="7"/>
+      <c r="AJ10" s="8"/>
       <c r="AK10" s="7"/>
       <c r="AL10" s="7"/>
       <c r="AM10" s="7"/>
       <c r="AN10" s="7"/>
       <c r="AO10" s="7"/>
       <c r="AP10" s="7"/>
-      <c r="AQ10" s="7"/>
-      <c r="AR10" s="7"/>
-      <c r="AS10" s="7"/>
-      <c r="AT10" s="7"/>
-      <c r="AU10" s="7"/>
-      <c r="AV10" s="7"/>
-      <c r="AW10" s="7"/>
-      <c r="AX10" s="7"/>
-    </row>
-    <row r="11" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="AQ10" s="5"/>
+      <c r="AR10" s="5"/>
+      <c r="AS10" s="5"/>
+      <c r="AT10" s="5"/>
+      <c r="AU10" s="5"/>
+      <c r="AV10" s="5"/>
+      <c r="AW10" s="5"/>
+      <c r="AX10" s="10"/>
+    </row>
+    <row r="11" spans="1:101" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="3">
         <v>41920</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="3">
         <v>41928</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AQ11" s="7"/>
-      <c r="AR11" s="7"/>
-      <c r="AS11" s="7"/>
-      <c r="AT11" s="7"/>
-      <c r="AU11" s="7"/>
-      <c r="AV11" s="7"/>
-      <c r="AW11" s="7"/>
-      <c r="AX11" s="7"/>
-      <c r="AY11" s="7"/>
-    </row>
-    <row r="12" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="AQ11" s="4"/>
+      <c r="AR11" s="5"/>
+      <c r="AS11" s="5"/>
+      <c r="AT11" s="5"/>
+      <c r="AU11" s="5"/>
+      <c r="AV11" s="5"/>
+      <c r="AW11" s="5"/>
+      <c r="AX11" s="5"/>
+      <c r="AY11" s="10"/>
+    </row>
+    <row r="12" spans="1:101" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="6">
-        <v>41913</v>
-      </c>
-      <c r="D12" s="6">
+      <c r="C12" s="3">
+        <v>41920</v>
+      </c>
+      <c r="D12" s="3">
         <v>41943</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AJ12" s="7"/>
-      <c r="AK12" s="7"/>
-      <c r="AL12" s="7"/>
-      <c r="AM12" s="7"/>
-      <c r="AN12" s="7"/>
-      <c r="AO12" s="7"/>
-      <c r="AP12" s="7"/>
-      <c r="AQ12" s="7"/>
+      <c r="AJ12" s="11"/>
+      <c r="AK12" s="11"/>
+      <c r="AL12" s="11"/>
+      <c r="AM12" s="11"/>
+      <c r="AN12" s="11"/>
+      <c r="AO12" s="11"/>
+      <c r="AP12" s="11"/>
+      <c r="AQ12" s="8"/>
       <c r="AR12" s="7"/>
       <c r="AS12" s="7"/>
       <c r="AT12" s="7"/>
@@ -1152,85 +1308,85 @@
       <c r="BK12" s="7"/>
       <c r="BL12" s="7"/>
       <c r="BM12" s="7"/>
-      <c r="BN12" s="7"/>
-    </row>
-    <row r="13" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="BN12" s="9"/>
+    </row>
+    <row r="13" spans="1:101" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="3">
         <v>41933</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="3">
         <v>41943</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="BD13" s="7"/>
-      <c r="BE13" s="7"/>
-      <c r="BF13" s="7"/>
-      <c r="BG13" s="7"/>
-      <c r="BH13" s="7"/>
-      <c r="BI13" s="7"/>
-      <c r="BJ13" s="7"/>
-      <c r="BK13" s="7"/>
-      <c r="BL13" s="7"/>
-      <c r="BM13" s="7"/>
-      <c r="BN13" s="7"/>
-    </row>
-    <row r="14" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="BD13" s="4"/>
+      <c r="BE13" s="5"/>
+      <c r="BF13" s="5"/>
+      <c r="BG13" s="5"/>
+      <c r="BH13" s="5"/>
+      <c r="BI13" s="5"/>
+      <c r="BJ13" s="5"/>
+      <c r="BK13" s="5"/>
+      <c r="BL13" s="5"/>
+      <c r="BM13" s="5"/>
+      <c r="BN13" s="10"/>
+    </row>
+    <row r="14" spans="1:101" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="3">
         <v>41929</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="3">
         <v>41943</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AZ14" s="7"/>
+      <c r="AZ14" s="8"/>
       <c r="BA14" s="7"/>
       <c r="BB14" s="7"/>
       <c r="BC14" s="7"/>
       <c r="BD14" s="7"/>
       <c r="BE14" s="7"/>
       <c r="BF14" s="7"/>
-      <c r="BG14" s="7"/>
-      <c r="BH14" s="7"/>
-      <c r="BI14" s="7"/>
-      <c r="BJ14" s="7"/>
-      <c r="BK14" s="7"/>
-      <c r="BL14" s="7"/>
-      <c r="BM14" s="7"/>
-      <c r="BN14" s="7"/>
-    </row>
-    <row r="15" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="BG14" s="5"/>
+      <c r="BH14" s="5"/>
+      <c r="BI14" s="5"/>
+      <c r="BJ14" s="5"/>
+      <c r="BK14" s="5"/>
+      <c r="BL14" s="5"/>
+      <c r="BM14" s="5"/>
+      <c r="BN14" s="10"/>
+    </row>
+    <row r="15" spans="1:101" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="3">
         <v>41935</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="3">
         <v>41946</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="BG15" s="7"/>
+      <c r="BG15" s="8"/>
       <c r="BH15" s="7"/>
       <c r="BI15" s="7"/>
       <c r="BJ15" s="7"/>
@@ -1240,81 +1396,172 @@
       <c r="BN15" s="7"/>
       <c r="BO15" s="7"/>
       <c r="BP15" s="7"/>
-      <c r="BQ15" s="7"/>
-    </row>
-    <row r="16" spans="1:96" x14ac:dyDescent="0.25">
+      <c r="BQ15" s="9"/>
+    </row>
+    <row r="16" spans="1:101" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="3">
+        <v>41947</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BR16" s="8"/>
+      <c r="BS16" s="7"/>
+      <c r="BT16" s="7"/>
+      <c r="BU16" s="7"/>
+      <c r="BV16" s="7"/>
+      <c r="BW16" s="7"/>
+      <c r="BX16" s="7"/>
+      <c r="BY16" s="9"/>
+    </row>
+    <row r="17" spans="1:101" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="3">
+        <v>41954</v>
+      </c>
+      <c r="D17" s="3">
+        <v>41954</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY17" s="6"/>
+    </row>
+    <row r="18" spans="1:101" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="3">
+        <v>41955</v>
+      </c>
+      <c r="D18" s="3">
+        <v>41967</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BZ18" s="8"/>
+      <c r="CA18" s="7"/>
+      <c r="CB18" s="7"/>
+      <c r="CC18" s="7"/>
+      <c r="CD18" s="7"/>
+      <c r="CE18" s="7"/>
+      <c r="CF18" s="7"/>
+      <c r="CG18" s="7"/>
+      <c r="CH18" s="7"/>
+      <c r="CI18" s="7"/>
+      <c r="CJ18" s="7"/>
+      <c r="CK18" s="7"/>
+      <c r="CL18" s="9"/>
+    </row>
+    <row r="19" spans="1:101" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="3">
+        <v>41968</v>
+      </c>
+      <c r="D19" s="3">
+        <v>41971</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="CM19" s="8"/>
+      <c r="CN19" s="7"/>
+      <c r="CO19" s="7"/>
+      <c r="CP19" s="9"/>
+    </row>
+    <row r="20" spans="1:101" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="3">
+        <v>41972</v>
+      </c>
+      <c r="D20" s="3">
+        <v>41972</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="CQ20" s="6"/>
+    </row>
+    <row r="21" spans="1:101" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="3">
+        <v>41973</v>
+      </c>
+      <c r="D21" s="3">
+        <v>41948</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="CR21" s="8"/>
+      <c r="CS21" s="7"/>
+      <c r="CT21" s="7"/>
+      <c r="CU21" s="7"/>
+      <c r="CV21" s="7"/>
+      <c r="CW21" s="9"/>
+    </row>
+    <row r="22" spans="1:101" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="1"/>
+      <c r="C22" s="3">
+        <v>41948</v>
+      </c>
+      <c r="D22" s="3">
+        <v>41948</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="CW22" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="F1:AI1"/>
-    <mergeCell ref="AJ1:BM1"/>
+  <mergeCells count="9">
     <mergeCell ref="BO1:CR1"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
+    <mergeCell ref="CS1:CW1"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="F1:AI1"/>
+    <mergeCell ref="AJ1:BM1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documents/ProjectSchedule.xlsx
+++ b/Documents/ProjectSchedule.xlsx
@@ -300,14 +300,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -595,7 +595,7 @@
   <dimension ref="A1:CW22"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CV29" sqref="CV29"/>
+      <selection activeCell="AC17" sqref="AC17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,132 +638,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="13"/>
-      <c r="AI1" s="13"/>
-      <c r="AJ1" s="13" t="s">
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="12"/>
+      <c r="AJ1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AK1" s="13"/>
-      <c r="AL1" s="13"/>
-      <c r="AM1" s="13"/>
-      <c r="AN1" s="13"/>
-      <c r="AO1" s="13"/>
-      <c r="AP1" s="13"/>
-      <c r="AQ1" s="13"/>
-      <c r="AR1" s="13"/>
-      <c r="AS1" s="13"/>
-      <c r="AT1" s="13"/>
-      <c r="AU1" s="13"/>
-      <c r="AV1" s="13"/>
-      <c r="AW1" s="13"/>
-      <c r="AX1" s="13"/>
-      <c r="AY1" s="13"/>
-      <c r="AZ1" s="13"/>
-      <c r="BA1" s="13"/>
-      <c r="BB1" s="13"/>
-      <c r="BC1" s="13"/>
-      <c r="BD1" s="13"/>
-      <c r="BE1" s="13"/>
-      <c r="BF1" s="13"/>
-      <c r="BG1" s="13"/>
-      <c r="BH1" s="13"/>
-      <c r="BI1" s="13"/>
-      <c r="BJ1" s="13"/>
-      <c r="BK1" s="13"/>
-      <c r="BL1" s="13"/>
-      <c r="BM1" s="13"/>
+      <c r="AK1" s="12"/>
+      <c r="AL1" s="12"/>
+      <c r="AM1" s="12"/>
+      <c r="AN1" s="12"/>
+      <c r="AO1" s="12"/>
+      <c r="AP1" s="12"/>
+      <c r="AQ1" s="12"/>
+      <c r="AR1" s="12"/>
+      <c r="AS1" s="12"/>
+      <c r="AT1" s="12"/>
+      <c r="AU1" s="12"/>
+      <c r="AV1" s="12"/>
+      <c r="AW1" s="12"/>
+      <c r="AX1" s="12"/>
+      <c r="AY1" s="12"/>
+      <c r="AZ1" s="12"/>
+      <c r="BA1" s="12"/>
+      <c r="BB1" s="12"/>
+      <c r="BC1" s="12"/>
+      <c r="BD1" s="12"/>
+      <c r="BE1" s="12"/>
+      <c r="BF1" s="12"/>
+      <c r="BG1" s="12"/>
+      <c r="BH1" s="12"/>
+      <c r="BI1" s="12"/>
+      <c r="BJ1" s="12"/>
+      <c r="BK1" s="12"/>
+      <c r="BL1" s="12"/>
+      <c r="BM1" s="12"/>
       <c r="BN1" s="2"/>
-      <c r="BO1" s="13" t="s">
+      <c r="BO1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="BP1" s="13"/>
-      <c r="BQ1" s="13"/>
-      <c r="BR1" s="13"/>
-      <c r="BS1" s="13"/>
-      <c r="BT1" s="13"/>
-      <c r="BU1" s="13"/>
-      <c r="BV1" s="13"/>
-      <c r="BW1" s="13"/>
-      <c r="BX1" s="13"/>
-      <c r="BY1" s="13"/>
-      <c r="BZ1" s="13"/>
-      <c r="CA1" s="13"/>
-      <c r="CB1" s="13"/>
-      <c r="CC1" s="13"/>
-      <c r="CD1" s="13"/>
-      <c r="CE1" s="13"/>
-      <c r="CF1" s="13"/>
-      <c r="CG1" s="13"/>
-      <c r="CH1" s="13"/>
-      <c r="CI1" s="13"/>
-      <c r="CJ1" s="13"/>
-      <c r="CK1" s="13"/>
-      <c r="CL1" s="13"/>
-      <c r="CM1" s="13"/>
-      <c r="CN1" s="13"/>
-      <c r="CO1" s="13"/>
-      <c r="CP1" s="13"/>
-      <c r="CQ1" s="13"/>
-      <c r="CR1" s="13"/>
-      <c r="CS1" s="13" t="s">
+      <c r="BP1" s="12"/>
+      <c r="BQ1" s="12"/>
+      <c r="BR1" s="12"/>
+      <c r="BS1" s="12"/>
+      <c r="BT1" s="12"/>
+      <c r="BU1" s="12"/>
+      <c r="BV1" s="12"/>
+      <c r="BW1" s="12"/>
+      <c r="BX1" s="12"/>
+      <c r="BY1" s="12"/>
+      <c r="BZ1" s="12"/>
+      <c r="CA1" s="12"/>
+      <c r="CB1" s="12"/>
+      <c r="CC1" s="12"/>
+      <c r="CD1" s="12"/>
+      <c r="CE1" s="12"/>
+      <c r="CF1" s="12"/>
+      <c r="CG1" s="12"/>
+      <c r="CH1" s="12"/>
+      <c r="CI1" s="12"/>
+      <c r="CJ1" s="12"/>
+      <c r="CK1" s="12"/>
+      <c r="CL1" s="12"/>
+      <c r="CM1" s="12"/>
+      <c r="CN1" s="12"/>
+      <c r="CO1" s="12"/>
+      <c r="CP1" s="12"/>
+      <c r="CQ1" s="12"/>
+      <c r="CR1" s="12"/>
+      <c r="CS1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="CT1" s="13"/>
-      <c r="CU1" s="13"/>
-      <c r="CV1" s="13"/>
-      <c r="CW1" s="13"/>
+      <c r="CT1" s="12"/>
+      <c r="CU1" s="12"/>
+      <c r="CV1" s="12"/>
+      <c r="CW1" s="12"/>
     </row>
     <row r="2" spans="1:101" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="14"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="13"/>
       <c r="F2" s="2">
         <v>1</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>41973</v>
       </c>
       <c r="D21" s="3">
-        <v>41948</v>
+        <v>41978</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>29</v>
@@ -1541,10 +1541,10 @@
         <v>27</v>
       </c>
       <c r="C22" s="3">
-        <v>41948</v>
+        <v>41978</v>
       </c>
       <c r="D22" s="3">
-        <v>41948</v>
+        <v>41978</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>36</v>
@@ -1553,15 +1553,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="F1:AI1"/>
+    <mergeCell ref="AJ1:BM1"/>
     <mergeCell ref="BO1:CR1"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="CS1:CW1"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="F1:AI1"/>
-    <mergeCell ref="AJ1:BM1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
